--- a/notebooks/cleaned_test_pipeline.xlsx
+++ b/notebooks/cleaned_test_pipeline.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Revenue_currency</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>entities</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
@@ -449,15 +454,18 @@
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>USD 100.0</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Alice</t>
         </is>
@@ -469,15 +477,14 @@
           <t>02/01/2016</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>200.0</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
+        <v>200</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Bob</t>
         </is>
@@ -489,15 +496,18 @@
           <t>21/02/2026</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>EUR 300.0</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="n">
+        <v>300</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>15</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Charlie Smith</t>
         </is>
